--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8372E0-B263-4A0D-A2C4-B472F54FF548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36006DE6-0F45-4099-A01E-A0F27EC7647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>Utility Elicitation Method and Source</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Study Design</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
 Utility values used in the present cost-utility analysis:
 - Progression-free: 0.81
 - Progressive disease: 0.65</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1096,31 +1096,31 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1137,31 +1137,31 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1178,31 +1178,31 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1219,31 +1219,31 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1260,31 +1260,31 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1301,31 +1301,31 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1342,31 +1342,31 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1383,31 +1383,31 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1424,6 +1424,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1634,30 +1657,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1674,22 +1692,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36006DE6-0F45-4099-A01E-A0F27EC7647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BBA98-54EB-466F-9C03-6EE8B1ED0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedReportData" sheetId="3" r:id="rId1"/>
@@ -52,13 +52,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
     <t>Inclusion Criteria</t>
-  </si>
-  <si>
-    <t>Line of Therapy</t>
   </si>
   <si>
     <t>Original</t>
@@ -316,6 +310,12 @@
   </si>
   <si>
     <t>Study Identifier</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
   </si>
 </sst>
 </file>
@@ -727,19 +727,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="23">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1018,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1039,379 +1038,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1424,6 +1423,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
@@ -1435,15 +1443,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1658,19 +1657,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/QOL_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BBA98-54EB-466F-9C03-6EE8B1ED0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF08A8-3065-4179-ACAC-A8AECE027C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Publication Identifier</t>
   </si>
@@ -82,233 +82,6 @@
     <t>CEA/CUA</t>
   </si>
   <si>
-    <t>Fenk_CCR_2020</t>
-  </si>
-  <si>
-    <t>Efficacy and tolerability of high-versus low-dose lenalidomide maintenance therapy of multiple myeloma after autologous blood stem cell transplantation</t>
-  </si>
-  <si>
-    <t>NCT00891384</t>
-  </si>
-  <si>
-    <t>NDMM with maintenance post-SCT</t>
-  </si>
-  <si>
-    <t>SCT-eligible</t>
-  </si>
-  <si>
-    <t>Symptomatic and measurable NDMM, undergone high-dose chemotherapy (up to 6 cycles for induction and up to 2 cycles for mobilization) and ASCT as first-line therapy, ECOG 0-2, 18-75 years old.</t>
-  </si>
-  <si>
-    <t>1 Line</t>
-  </si>
-  <si>
-    <t>Charts available in supplement 8 - raw numbers not reported
-Utility scores were high at baseline and did not differ between both arms.
-Towards the end of study (cycles 18, 20, 22, and 24), the mean utility scores for LEN-5mg arm seemed smaller, but not significantly different compared to baseline values and values for LEN-25 mg arm.</t>
-  </si>
-  <si>
-    <t>Abonour_AH_2018</t>
-  </si>
-  <si>
-    <t>Impact of post-transplantation maintenance therapy on health-related quality of life in patients with multiple myeloma: data from the Connect R MM Registry</t>
-  </si>
-  <si>
-    <t>NCT01081028</t>
-  </si>
-  <si>
-    <t>Retrospective</t>
-  </si>
-  <si>
-    <t>Adult patients with symptomatic NDMM within 2 months before study entry.</t>
-  </si>
-  <si>
-    <t>Utility Measurement Tool: EQ-5D
-Method of Elicitation: NDMM post-ASCT patients in the Connect MM Registry, receiving maintenance (any type or lenalidomide only) or with no maintenance 
-Method of Evaluation: Survey among patients registered in Connect MM registry
-Description of Health States: NR
-EQ-5D/Utilities at Baseline: Mean (SD) EQ-5D overall index; ANY maintenance vs LEN-only maintenance vs No maintenance
-- At study baseline: 0.76 vs 0.76 vs 0.75
-- Pre-ASCT: 0.79 vs 0.79 vs 0.79
-Measurement Start Point: - At study baseline
-- After induction therapy but prior to ASCT
-Timepoint(s) of Assessment: - At study baseline, after induction therapy but prior to ASCT (analytical baseline or t0), and quarterly from 100 days post-ASCT until the end of maintenance therapy or until progressive disease, discontinuation, or death (analytic period).
-EQ-5D With Maintenance Therapy: Mean (SD) EQ-5D overall index; ANY maintenance vs LEN-only maintenance vs No maintenance
-- During follow-up: 0.83 vs 0.84 vs 0.83
-- At disease progression: 0.79 vs 0.78 vs 0.78
-- There were no statistically significant differences in change in EQ-5D overall index scores over time between the group receiving no maintenance therapy and the groups receiving any maintenance or lenalidomide-only maintenance therapy.
-- Across groups, EQ-5D overall index score increased significantly from pre-ASCT to the follow-up period (p&lt;0.001 for all groups) and decreased at progression.
-- The decrease at progression reached statistical significance in the groups receiving lenalidomide-only maintenance therapy (p=0.001) and no maintenance therapy
-(p=0.049).</t>
-  </si>
-  <si>
-    <t>Li_CM_2020</t>
-  </si>
-  <si>
-    <t>Health-related quality of life of patients with multiple myeloma: A real-world study in China</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>SCT-eligible and SCT-ineligible</t>
-  </si>
-  <si>
-    <t>Confirmed diagnosis of MM.</t>
-  </si>
-  <si>
-    <t>Utility Measurement Tool: EQ-5D index score; EQ-5D VAS
-Method of Elicitation: MM patients (in any phase of treatment) receiving various treatments in China
-Method of Evaluation: - Survey distributed (digitally and hardcopy) to patients with confirmed MM diagnosis.
-Description of Health States: - Stable disease
-- Unstable disease
-- ≤ 3 treatment-related toxicities
-- &gt;3 treatment-related toxicities
-- Transplantation
-- No transplantation</t>
-  </si>
-  <si>
-    <t>Tay_LL_2019</t>
-  </si>
-  <si>
-    <t>Health related quality of life for multiple myeloma patients according to treatment strategy after autologous stem cell transplant: a cross-sectional study using EORTC, EQ-5D and MY-20 scales</t>
-  </si>
-  <si>
-    <t>MM with maintenance post-SCT</t>
-  </si>
-  <si>
-    <t>Adult patients with MM who had received a single ASCT as part of routine care, without consolidation therapy.
-Patients within 30-100 days of ASCT and had not commenced any maintenance (baseline patients).
-Patients at &gt;100 days post ASCT and currently receiving any maintenance therapy (MT patients).
-Patients at &gt;100 days post ASCT and currently not receiving maintenance (no MT patients).</t>
-  </si>
-  <si>
-    <t>Utility Measurement Tool: EQ-5D-3L, EQ-5D VAS
-Method of Elicitation: - Data was elicited from 3 types of MM patients included in the study:
-- MM patients within 30-100 days of ASCT and had not commenced any maintenance (baseline patients).
-- MM patients at &gt;100 days post ASCT and currently receiving any maintenance therapy (any maintenance patients).
-- MM patients at &gt;100 days post ASCT and currently not receiving maintenance (no maintenance patients).
-Method of Evaluation: - Survey
-Description of Health States: - 30-100 days post-ASCT
-- &gt;100 days post-ASCT with any maintenance therapy
-- &gt;100 days post-ASCT with no maintenance
-EQ-5D/Utilities at Baseline: - Mean EQ-5D utility score, 30-100 days post-ASCT (N=83): 0.77
-- Mean EQ-5D VAS score, 30-100 days post-ASCT (N=84): 69.6
-EQ-5D With Maintenance Therapy: - Mean EQ-5D utility score:
-&gt;100 days post-ASCT with any maintenance therapy (N=139): 0.81
-&gt;100 days post-ASCT with no maintenance (N=78): 0.79
-- Mean EQ-5D VAS score:
-&gt;100 days post-ASCT with any maintenance therapy (N=137): 76.7
-&gt;100 days post-ASCT with no maintenance (N=76): 76.2
-Adjusted difference*, ANY maintenance vs Baseline, EQ-5D utility score: 0.00 (p=0.9314)
-Adjusted difference*, ANY maintenance vs Baseline, EQ-5D VAS score: 2.46 (p=0.4968)
-*Adjusted for age, sex, BMI, duration since diagnosis, comorbidities, ECOG, and country</t>
-  </si>
-  <si>
-    <t>Olry_BMT_2019</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness of lenalidomide maintenance in patients with multiple myeloma who have undergone autologous transplant of hematopoietic progenitor cells</t>
-  </si>
-  <si>
-    <t>NDMM with maintenance, post-SCT</t>
-  </si>
-  <si>
-    <t>- Utility values were obtained from the cohort of Proskorovsky (2014), which included patients (n = 154) who had undergone autologous transplant in the past 3 months or who had received experimental treatment in the context of a clinical trial. 
-- The cohort of patients included were from the Jordan (2014) cross-sectional, bi-national, multicenter study that enrolled consecutive MM patients presenting for routine care visits at five UK and six German sites. 
-- Eligible patients were aged ≥18 years with a current diagnosis of MM and were representative of one out of four pre-defined study subgroups: asymptomatic, mildly symptomatic, moderately symptomatic, or severely symptomatic.
-- Patients were not eligible for enrollment if they had undergone an autograft transplantation within the past 3 months or if they had received an experimental MM treatment.
-- The Jordan (2014) study collected data on HRQoL (EQ-5D, EORTC QLQ-C30 and EORTC QLQMY20) at a single patient study visit. In the original study (Jordan, 2014) the mean EQ-5D utility score was 0.7 (SD 0.3) and the median was 0.73 (IQR 0.62-1.00).
-- Algorithm from Proskorovsky et al, 2014:
-- Multiple linear regression analysis was used to derive a mapping algorithm from EORTC QLQ-C30 and QLQMY20 to EQ-5D values. Each scale/item was tested in univariate models against utility. 
-- The first multivariate model was then fitted by including scales/items that were found to have a statistically significant association with utility in univariate analysis (p &lt; 0.1). The first multivariate model was then manually trimmed down by sequentially removing non-significant predictors with the highest p-value until the final model included only significant predictors (p &lt; 0.1). 
-- Goodness-of-fit of the full model (including all scales of QLQ-C30 and QLQ-MY20) and the model including significant predictors only, was compared using adjusted R-squared values. The predictive ability of the final model was assessed by root mean square error (RMSE) and by comparing predicted and observed EQ-5D utility values. 
-- External validation was not possible given the lack of comparable datasets in multiple myeloma in which all three questionnaires were administered. Therefore, as an alternative, a 10-fold cross validation model selection method was used to assess predictive ability of the mapping. In 10-fold cross validation, the data are split into 10 approximately equivalent sized parts. 
-- The model is fitted on 9 data parts with the 10th being held out for validation. Specifically, the fitted model of the 9 selected parts is used to compute the predicted residual sum of squares on the 10th omitted part, and this process is repeated for each of the 10 parts. The sum of the 10 predicted residual sums of squares is obtained for each fitted model and is the estimate of the prediction error that is denoted by CVPRESS. 
-- Among all possible models with varying numbers and combinations of HRQoL scales, the model with the smallest CVPRESS statistic is then selected.
-- Among all candidate models, the model with the smallest CVPRESS statistic has the best predictive ability. In addition, observed vs. predicted EQ-5D values were examined overall and by symptom severity group. 
-- This model-building process was repeated to develop a mapping equation based on the QLQ-C30 instrument alone, for application in studies that did not apply the QLQMY20 instrument.
-In Proskorovsky, 2014, utility values were obtained by mapping QLQ-C30 + MY20, for the following categories of patients:
-Asymptomatic: predicted 0.893 (95%CI 0.819,0.967); actual value: 0.923
-Mildly symptomatic: 0.833 (95%CI 0.783, 0.883), actual value: 0.806
-Moderately symptomatic: 0.679 (95%CI 0.616, 0.743), actual value: 0.675
-Severely symptomatic: 0.474 (95%CI 0.398, 0.551), actual value: 0.501
-In the economic evaluation, progression-free health state was assimilated to mildly symptomatic group, 1st relapse health state was assimilated to moderately symptomatic group, and 2nd relapse health state was assimilated to severely symptomatic group.
-Disutility values associated to the presence of adverse events were not applied or estimated.</t>
-  </si>
-  <si>
-    <t>Marchetti_MJHID_2021</t>
-  </si>
-  <si>
-    <t>Cost-Effectiveness of Post-Autotransplant Lenalidomide in Persons with Multiple Myeloma</t>
-  </si>
-  <si>
-    <t>- Utility values were obtained from the cohort of Proskorovsky (2014), which included patients (n = 154) who had undergone autologous transplant in the past 3 months or who had received experimental treatment in the context of a clinical trial. 
-- The cohort of patients included were from the Jordan (2014) cross-sectional, bi-national, multicenter study that enrolled consecutive MM patients presenting for routine care visits at five UK and six German sites. 
-- Eligible patients were aged ≥18 years with a current diagnosis of MM and were representative of one out of four pre-defined study subgroups: asymptomatic, mildly symptomatic, moderately symptomatic, or severely symptomatic.
-- Patients were not eligible for enrollment if they had undergone an autograft transplantation within the past 3 months or if they had received an experimental MM treatment.
-- The Jordan (2014) study collected data on HRQoL (EQ-5D, EORTC QLQ-C30 and EORTC QLQMY20) at a single patient study visit. In the original study (Jordan, 2014) the mean EQ-5D utility score was 0.7 (SD 0.3) and the median was 0.73 (IQR 0.62-1.00).
-- Algorithm from Proskorovsky et al, 2014:
-- Multiple linear regression analysis was used to derive a mapping algorithm from EORTC QLQ-C30 and QLQMY20 to EQ-5D values. Each scale/item was tested in univariate models against utility. 
-- The first multivariate model was then fitted by including scales/items that were found to have a statistically significant association with utility in univariate analysis (p &lt; 0.1). The first multivariate model was then manually trimmed down by sequentially removing non-significant predictors with the highest p-value until the final model included only significant predictors (p &lt; 0.1). 
-- Goodness-of-fit of the full model (including all scales of QLQ-C30 and QLQ-MY20) and the model including significant predictors only, was compared using adjusted R-squared values. The predictive ability of the final model was assessed by root mean square error (RMSE) and by comparing predicted and observed EQ-5D utility values. 
-- External validation was not possible given the lack of comparable datasets in multiple myeloma in which all three questionnaires were administered. Therefore, as an alternative, a 10-fold cross validation model selection method was used to assess predictive ability of the mapping. In 10-fold cross validation, the data are split into 10 approximately equivalent sized parts. 
-- The model is fitted on 9 data parts with the 10th being held out for validation. Specifically, the fitted model of the 9 selected parts is used to compute the predicted residual sum of squares on the 10th omitted part, and this process is repeated for each of the 10 parts. The sum of the 10 predicted residual sums of squares is obtained for each fitted model and is the estimate of the prediction error that is denoted by CVPRESS. 
-- Among all possible models with varying numbers and combinations of HRQoL scales, the model with the smallest CVPRESS statistic is then selected.
-- Among all candidate models, the model with the smallest CVPRESS statistic has the best predictive ability. In addition, observed vs. predicted EQ-5D values were examined overall and by symptom severity group. 
-- This model-building process was repeated to develop a mapping equation based on the QLQ-C30 instrument alone, for application in studies that did not apply the QLQMY20 instrument.
-In Proskorovsky, 2014, utility values were obtained by mapping QLQ-C30 + MY20, for the following categories of patients:
-Asymptomatic: predicted 0.893 (95%CI 0.819,0.967); actual value: 0.923
-Mildly symptomatic: 0.833 (95%CI 0.783, 0.883), actual value: 0.806
-Moderately symptomatic: 0.679 (95%CI 0.616, 0.743), actual value: 0.675
-Severely symptomatic: 0.474 (95%CI 0.398, 0.551), actual value: 0.501
-In the economic evaluation, progression-free health state was assimilated to mildly symptomatic group, 1st relapse health state was assimilated to moderately symptomatic group, and 2nd relapse health state was assimilated to severely symptomatic group.
-Treatment-related disutility was taken from Acaster, 2013, a cross-sectional survey conducted in UK, in multiple myeloma patients. The survey was conducted to assess the impact of treatment-free interval.</t>
-  </si>
-  <si>
-    <t>Uyl-de Groot_Haematology_2020</t>
-  </si>
-  <si>
-    <t>Lenalidomide as maintenance treatment for patients with multiple myeloma after autologous stem cell transplantation: A pharmaco-economic assessment</t>
-  </si>
-  <si>
-    <t>- EQ-5D collected in the Connect® MM Registry  (see Abonour_AH_2018).
-Utility data for subsequent lines of treatment in MM post-ASCT are scarce. A postsecond-line (and post-ASCT) utility value was applied from a published analysis of the EMMOS registry (Hatswell et al., 2016). The EMMOS registry (NCT01241396) full analysis set contains data from 2358 subjects with MM enrolled and followed at 234 sites in 22 countries from 2010 to 2014, including 9080 completed EQ-5D-3L questionnaires.
-'- 6 health states were included in the model: 
-- Preprogression (on maintenance treatment and off treatment)
-- Postprogression survival (off treatment and progressed, i.e., presecond-line treatment, second-line treatment, and postsecond-line treatment)
-- Death. 
-- Utility values for the progression-free health states were derived as 0.853 in both lenalidomide maintenance and no maintenance arms
-- Progressive disease, corresponding to the treatment-free interval and second-line treatment health states, was determined to have a utility of 0.789.
-Utility data for subsequent lines of treatment in MM post-ASCT are scarce. A postsecond-line (and post-ASCT) utility value of 0.640 was applied from a published analysis of the EMMOS registry (NCT01241396)
-The Connect® MM Registry data captured the impact of lenalidomide maintenance on patient QoL so disutility values for AEs were not applied in the base case to avoid double counting.
-Utility values:
-- Progression-free: 0.853
-- Progressive disease: 0.789
-- Post-second line and post-ASCT: 0.640
-- Scenario analysis: progressive disease (second line therapy): 0.72</t>
-  </si>
-  <si>
-    <t>Gaultney_Pharmacogenomics_2018</t>
-  </si>
-  <si>
-    <t>Potential therapeutic and economic value of risk-stratified treatment as initial treatment of multiple myeloma in Europe</t>
-  </si>
-  <si>
-    <t>Adult patients with NDMM, 18-65 years old, Salmon-Durie stage II-III, and WHO performance status 0-2, or WHO 3 when caused by MM.</t>
-  </si>
-  <si>
-    <t>- Health states utilities were derived from the study by van Agthoven et al, 2004 (a cost analysis based on a prospective multicentre randomised phase III clinical study HOVON 24). Patients ≤65 years of age with previously untreated MM, and stage II or III A/B disease were randomized to intensive chemotherapy followed by myeloablative therapy with autologous stem-cell rescue as compared to intensive chemotherapy alone followed by interferon maintenance.
--  Utility values were calculated for UK population, based on EQ-5D questionnaire responses in HOVON 24 study (an Agthoven et al, 2004)
-In this study the utility values were 0.81 (intensive chemotherapy only) versus 0.65 (myeloablative treatment) at 6 months from randomisation, 0.80 versus 0.62 (12 months), 0.81 versus 0.69 (18 months), and 0.77 versus 0.75 (24 months), respectively.
-Utility values used in the present cost-utility analysis:
-- Progression-free: 0.81
-- Progressive disease: 0.65</t>
-  </si>
-  <si>
     <t>Study Identifier</t>
   </si>
   <si>
@@ -316,6 +89,90 @@
   </si>
   <si>
     <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Jiang_2019</t>
+  </si>
+  <si>
+    <t>Labbe_2017</t>
+  </si>
+  <si>
+    <t>Singh_2019</t>
+  </si>
+  <si>
+    <t>Borget_2012</t>
+  </si>
+  <si>
+    <t>Chen_2010</t>
+  </si>
+  <si>
+    <t>Real-world health utility scores and toxicities to tyrosine kinase inhibitors in epidermal growth factor receptor mutated advanced non-small cell lung cancer. Cancer Med. 2019;8(18):7542-7555. doi:10.1002/cam4.2603</t>
+  </si>
+  <si>
+    <t>Real-World EQ5D Health Utility Scores for Patients With Metastatic Lung Cancer by Molecular Alteration and Response to Therapy</t>
+  </si>
+  <si>
+    <t>An analysis of EQ-5D adjusting for treatment switching: the case of patients with EGFR T790M positive NSCLC treated with osimertinib</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of three strategies for second-line erlotinib initiation in nonsmall-cell lung cancer: the ERMETIC study part 3</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness of Epidermal Growth Factor Receptor Gene Mutation Testing For Patients with Advanced Non-Small Cell Lung Cancer Living in Ontario</t>
+  </si>
+  <si>
+    <t>Prospective observational</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Advanced, histologically confirmed EGFR mutated NSCLC outpatients (HUS reported for second-line treatment)</t>
+  </si>
+  <si>
+    <t>Histologically confirmed metastatic lung cancer patients</t>
+  </si>
+  <si>
+    <t>Locally advanced or metastatic EGFR T790M positive NSCLC patients whose disease has progressed with previous EGFR TKI</t>
+  </si>
+  <si>
+    <t>Patients with advanced NSCLC in whom at least one platinum-based chemotherapy regimen had failed and who were eligible for erlotinib or chemotherapy.</t>
+  </si>
+  <si>
+    <t>Advanced NSCLC (stage IIIB/IV) who had not received any first-line therapy with conventional chemotherapy for TKIs.</t>
+  </si>
+  <si>
+    <t>EGFRm ITT</t>
+  </si>
+  <si>
+    <t>EGFRm subgroup</t>
+  </si>
+  <si>
+    <t>Patients with advanced, histologically confirmed EDGRm-NSCLC</t>
+  </si>
+  <si>
+    <t>Any patient with histologically confirmed lung cancer, able to provide informed consent, without a significant cognitive deficit</t>
+  </si>
+  <si>
+    <t>Patients with locally advanced or metastatic EGFR T790M positive non-small cell lung cancer (NSCLC) whose disease has progressed with previous EGFR TKI (as in the AURA 3 trial)</t>
+  </si>
+  <si>
+    <t>2+ Line</t>
+  </si>
+  <si>
+    <t>In a real-world Canadian EGFRm-NSCLC population, authors found that first-line gefitinib and third-generation osimertinib had similar mean HUS and patient-reported toxicity and symptom scores. All TKI treatments had higher mean HUS compared to chemotherapy which was durable over time and was minimally disturbed by disease progression. Patient-reported toxicities and symptoms correlated with lower HUS across all treatment groups, demonstrating the importance of tempering toxicities to improve HUS. Analyses also support the application of EQ-5D in the real-world setting as a robust means for generating HUS in the EGFRm population. As EGFR-targeted treatment continues to expand, more real-world studies are needed to assess corresponding toxicities and impact on HUS to facilitate reliable cost-effectiveness analyses for new and existing treatments.</t>
+  </si>
+  <si>
+    <t>Patients with metastatic lung cancer carrying driver mutations stable on TKIs reported higher HUSs than patients with WT NSCLC and SCLC stable on chemotherapy. There were also inverse relationships between treatment-related toxicities and HUSs, both in patients with EGFR-mutated NSCLC and WT NSCLC, the other 2 groups being too small to make any conclusions. For patients with driver mutations, targeted agents have previously been shown to confer higher ORRs and PFS over chemotherapy, with better safety profile, but with increased cost. Pharmacoeconomic analyses of upcoming therapies should incorporate real-word HUSs, which should be specific for different molecular alterations under treatment-dependent disease states.</t>
+  </si>
+  <si>
+    <t>This study demonstrated methods to adjust for treatment switching in the analysis of EQ-5D from clinical trials. Failure to account for crossover significantly underestimated the QALY gain for osimertinib.</t>
+  </si>
+  <si>
+    <t>The cost-effectiveness ratios of the three strategies tested here for second-line erlotinib initiation in patients with advanced-stage NSCLC are within the limits considered acceptable for society, although patient selection based on clinical grounds or EFGR mutation status appears to improve cost-effectiveness.</t>
+  </si>
+  <si>
+    <t>Applying EGFR gene mutation testing to guide the use of gefitinib as firstline therapy for patients with advanced NSCLC will be cost-effective if WTP is above $81,000 per QALY.  The cost-effectiveness of EGFR gene mutation testing is sensitive to the efficacy and cost of gefitinib.</t>
   </si>
 </sst>
 </file>
@@ -735,11 +592,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1012,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEBFA3C-939C-4D7B-AC96-99075B122EAF}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1039,7 +896,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1063,13 +920,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1086,331 +943,193 @@
     </row>
     <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="K6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1423,15 +1142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
@@ -1443,6 +1153,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,19 +1376,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
